--- a/shsports_sportsman2015/trunk/doc/评价参数/美国博士分析结果201604.xlsx
+++ b/shsports_sportsman2015/trunk/doc/评价参数/美国博士分析结果201604.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="1065" windowWidth="23715" windowHeight="5370" activeTab="4"/>
+    <workbookView xWindow="-270" yWindow="2760" windowWidth="23715" windowHeight="6600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="German Male Factor" sheetId="1" r:id="rId1"/>
@@ -218,10 +218,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="181" formatCode="0.0000_ "/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="58" x14ac:knownFonts="1">
     <font>
@@ -1593,20 +1592,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2145,1396 +2141,1400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="U1" s="5"/>
+      <c r="V1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6" t="s">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="6"/>
+      <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>86</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>26.090699999999998</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>4.2881999999999998</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>127.1521</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>5.1414</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>16.0547</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1.7543</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>23.3828</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>9.2010000000000005</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>17.783300000000001</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>4.7942</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>120.1656</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>19.267499999999998</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>4.6105999999999998</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>0.48399999999999999</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>18.7271</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>6.7939999999999996</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <v>9.8470999999999993</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="3">
         <v>3.4426000000000001</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <v>-2.0497000000000001</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="3">
         <v>6.234</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="3">
         <v>910.06889999999999</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="3">
         <v>117.5241</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="3">
         <v>12.4696</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="3">
         <v>3.8138000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>87</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>26.533100000000001</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>4.3083</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>127.815</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>5.1295000000000002</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>16.098800000000001</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>1.8333999999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>23.701000000000001</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>9.1011000000000006</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>18.022200000000002</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>4.8888999999999996</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>120.9679</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>19.2986</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>4.5998999999999999</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>0.4793</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>18.854199999999999</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>6.7606999999999999</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <v>9.8889999999999993</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="3">
         <v>3.4348999999999998</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>-2.0653999999999999</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="3">
         <v>6.3201000000000001</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <v>913.91240000000005</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="3">
         <v>117.91240000000001</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="3">
         <v>12.672700000000001</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="3">
         <v>3.8862000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>88</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>26.801100000000002</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4.3906000000000001</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>128.42529999999999</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>5.1105999999999998</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>16.177299999999999</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>1.9295</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>24.069700000000001</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>9.1165000000000003</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>18.282299999999999</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>4.9623999999999997</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>121.6114</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>19.523900000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>4.5903</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>0.48060000000000003</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>19.021999999999998</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>6.7881</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <v>9.9251000000000005</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="3">
         <v>3.4658000000000002</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>-2.0756999999999999</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <v>6.3569000000000004</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>917.69839999999999</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="3">
         <v>117.66379999999999</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="3">
         <v>12.978</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="3">
         <v>3.8586999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>89</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>27.246600000000001</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>4.4231999999999996</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>129.02250000000001</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>5.1421000000000001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>16.241299999999999</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>1.9410000000000001</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>24.3629</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>9.1377000000000006</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>18.532599999999999</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>5.0545</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>122.5171</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>19.625900000000001</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>4.5804</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>0.48020000000000002</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>19.174299999999999</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>6.7148000000000003</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <v>9.9931000000000001</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="3">
         <v>3.4127999999999998</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>-2.0611999999999999</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="3">
         <v>6.3491</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <v>921.39620000000002</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="3">
         <v>118.1634</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="3">
         <v>12.954700000000001</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="3">
         <v>3.8702000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>90</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>27.245200000000001</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4.4886999999999997</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>129.61189999999999</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>5.1913999999999998</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>16.2805</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>2.0501999999999998</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>24.75</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>9.08</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>18.77</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>5.0869999999999997</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>123.0633</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>19.740600000000001</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>4.5696000000000003</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>0.46889999999999998</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>19.342700000000001</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>6.6920000000000002</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>10.016</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>3.4022999999999999</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>-2.0558000000000001</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>6.3684000000000003</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>925.16639999999995</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="3">
         <v>119.35129999999999</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="3">
         <v>13.101599999999999</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="3">
         <v>3.8721999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>91</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>27.664899999999999</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>4.7907999999999999</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>130.1979</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>5.1890999999999998</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>16.308800000000002</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>2.0657999999999999</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>25.06</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>9.1</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>19.04</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>5.1280000000000001</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>123.9825</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>19.762699999999999</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>4.5602999999999998</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>0.46829999999999999</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>19.512</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>6.6936999999999998</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>10.074400000000001</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>3.4542999999999999</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>-2.0461</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <v>6.3883999999999999</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>928.89189999999996</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="3">
         <v>118.7285</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="3">
         <v>13.2615</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="3">
         <v>3.8868</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>92</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>27.931000000000001</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>4.7648999999999999</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>130.80250000000001</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>5.2287999999999997</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>16.3659</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>2.0356999999999998</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>25.39</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>9.1259999999999994</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>19.309999999999999</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>5.19</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>124.6349</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>19.918900000000001</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>4.5499000000000001</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>0.47</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>19.673200000000001</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>6.7118000000000002</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>10.1104</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>3.4367000000000001</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>-2.0720000000000001</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>6.4298999999999999</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>932.70669999999996</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="3">
         <v>119.69240000000001</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="3">
         <v>13.3965</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="3">
         <v>3.8532000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>93</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>28.352699999999999</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>4.8341000000000003</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>131.3905</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>5.2545999999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>16.389900000000001</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>2.0693000000000001</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>25.73</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>9.0690000000000008</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>19.559999999999999</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>5.28</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>125.4477</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>20.036799999999999</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>4.5408999999999997</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>0.46960000000000002</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>19.832699999999999</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>6.6605999999999996</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>10.1455</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <v>3.4314</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>-2.0796999999999999</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <v>6.4541000000000004</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>936.31029999999998</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="3">
         <v>120.0368</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="3">
         <v>13.5573</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="3">
         <v>3.8816000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>94</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>28.892299999999999</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>4.8943000000000003</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>131.92400000000001</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>5.2373000000000003</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>16.5139</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>2.0703</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>26.05</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>9.0980000000000008</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>19.809999999999999</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>5.3239999999999998</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>126.1559</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>20.284600000000001</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>4.5305999999999997</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>0.47</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>19.951799999999999</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>6.7000999999999999</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>10.209300000000001</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="3">
         <v>3.4577</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <v>-2.0318000000000001</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>6.4775999999999998</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>939.30439999999999</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="3">
         <v>119.50069999999999</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="3">
         <v>13.701000000000001</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="3">
         <v>3.8673999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>95</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>28.924299999999999</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>4.7847</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>132.51570000000001</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>5.3177000000000003</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>16.508900000000001</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>1.9956</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>26.400200000000002</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>9.1384000000000007</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>20.05</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>5.4119999999999999</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>127.00790000000001</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>20.307500000000001</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>4.5204000000000004</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>0.46989999999999998</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>20.1266</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>6.6197999999999997</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>10.241</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="3">
         <v>3.4443000000000001</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <v>-2.0110999999999999</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>6.4546999999999999</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>943.52480000000003</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="3">
         <v>121.1939</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="3">
         <v>13.863</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="3">
         <v>3.883</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>96</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>29.362400000000001</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>4.8940000000000001</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>133.0719</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>5.2794999999999996</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>16.527999999999999</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>1.9907999999999999</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>26.87</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>9.1440000000000001</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>20.32</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>5.4660000000000002</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>127.657</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>20.338799999999999</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>4.5102000000000002</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>0.47</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>20.3108</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>6.6805000000000003</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>10.2964</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <v>3.4674999999999998</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>-2.0196000000000001</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>6.4951999999999996</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>947.00199999999995</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <v>121.2315</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="3">
         <v>13.990500000000001</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="3">
         <v>3.8540000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>97</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>29.654900000000001</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>5.1040999999999999</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>133.6568</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>5.32</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>16.5929</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>2.0853000000000002</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>27.02</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>9.0737000000000005</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>20.55</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>5.5380000000000003</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>128.41419999999999</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>20.600899999999999</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>4.4995000000000003</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>0.46910000000000002</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>20.4892</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>6.6372</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <v>10.319599999999999</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <v>3.4394999999999998</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>-2.0272999999999999</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <v>6.5155000000000003</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>950.90210000000002</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="3">
         <v>121.5348</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="3">
         <v>14.1456</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="3">
         <v>3.8782000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>98</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>29.992000000000001</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>5.2084000000000001</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>134.2945</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>5.3506999999999998</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>16.679300000000001</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>2.3955000000000002</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>27.17</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>9.1887000000000008</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>20.82</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>5.6040000000000001</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>129.2423</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>20.736799999999999</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>4.4903000000000004</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>0.45789999999999997</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>20.6126</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>6.5865999999999998</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <v>10.4064</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <v>3.4032</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <v>-2.0427</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <v>6.5488999999999997</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>954.26160000000004</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="3">
         <v>121.6952</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="3">
         <v>14.2965</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15" s="3">
         <v>3.8452999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>99</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <v>27.32</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>9.0968</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>21.03</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>5.7060000000000004</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>129.95410000000001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>20.897200000000002</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>4.4897999999999998</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>0.45850000000000002</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>20.808</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>6.58</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <v>10.4114</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <v>3.4350999999999998</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <v>-2.0263</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="3">
         <v>6.5545</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <v>958.36770000000001</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="3">
         <v>123.03919999999999</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="3">
         <v>14.453900000000001</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="3">
         <v>3.8677000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>100</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
         <v>27.5</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>9.1579999999999995</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>21.31</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>5.73</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>130.73070000000001</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>20.8795</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>4.4798</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>0.46010000000000001</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>20.959599999999998</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>6.6022999999999996</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>10.4855</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="3">
         <v>3.4243000000000001</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>-2.0358000000000001</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>6.6467999999999998</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>961.79570000000001</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="3">
         <v>123.2854</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="3">
         <v>14.581200000000001</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="3">
         <v>3.8342999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>101</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
         <v>27.636900000000001</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>9.17</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>21.58</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>5.7729999999999997</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>131.5197</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>21.029299999999999</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>4.4694000000000003</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>0.45779999999999998</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>21.068200000000001</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>6.5711000000000004</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <v>10.517799999999999</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <v>3.4439000000000002</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>-2.0699999999999998</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="3">
         <v>6.6727999999999996</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <v>965.67909999999995</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="3">
         <v>124.1583</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="3">
         <v>14.7324</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="3">
         <v>3.8561999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>102</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
         <v>27.74</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>9.0936000000000003</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>21.8</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>5.8929999999999998</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>132.18440000000001</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>21.084700000000002</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>4.4592999999999998</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>0.36890000000000001</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <v>21.267800000000001</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>6.5690999999999997</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="3">
         <v>10.564500000000001</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="3">
         <v>3.4597000000000002</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="3">
         <v>-2.0501</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="3">
         <v>6.6349</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="3">
         <v>970.30589999999995</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="3">
         <v>124.53319999999999</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19" s="3">
         <v>14.8619</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y19" s="3">
         <v>3.8418000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="N1:O1"/>
@@ -3544,10 +3544,6 @@
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3559,8 +3555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:Y2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3569,1331 +3565,1335 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="U1" s="5"/>
+      <c r="V1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6" t="s">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="6"/>
+      <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>86</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>25.3872</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>3.9306000000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>125.97490000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>5.0349000000000004</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>15.949400000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1.6158999999999999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>26.577000000000002</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>9.1819000000000006</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>19.0137</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>4.7789999999999999</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>113.3047</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>18.114100000000001</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>4.8010000000000002</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>0.47860000000000003</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>16.487300000000001</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>6.7851999999999997</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <v>9.5120000000000005</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="3">
         <v>3.3620999999999999</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <v>1.76</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="3">
         <v>6.2824</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="3">
         <v>834.48159999999996</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="3">
         <v>117</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="3">
         <v>8.4352</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="3">
         <v>2.3660999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>87</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>25.6646</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>4.0713999999999997</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>126.5483</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>5.0608000000000004</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>16.034099999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>1.8983000000000001</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>26.841999999999999</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>9.1896000000000004</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>19.2499</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>4.8398000000000003</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>113.9757</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>18.0976</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>4.7897999999999996</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>0.48039999999999999</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>16.653099999999998</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>6.7866</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <v>9.5884999999999998</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="3">
         <v>3.3620999999999999</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>1.7883</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="3">
         <v>6.2877000000000001</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <v>837.6902</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="3">
         <v>117.19110000000001</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="3">
         <v>8.5640999999999998</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="3">
         <v>2.3757000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>88</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>25.985299999999999</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4.1986999999999997</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>127.1416</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>5.1048999999999998</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>16.0672</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>1.8292999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>27.067699999999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>9.0876000000000001</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>19.5214</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>4.8803999999999998</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>114.6403</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>18.324100000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>4.7687999999999997</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>0.47949999999999998</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>16.803799999999999</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>6.7807000000000004</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <v>9.6382999999999992</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="3">
         <v>3.3576000000000001</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>1.7765</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <v>6.3468999999999998</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>840.98009999999999</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="3">
         <v>117.5625</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="3">
         <v>8.6762999999999995</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="3">
         <v>2.3784999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>89</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>26.463799999999999</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>4.4316000000000004</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>127.7188</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>5.1075999999999997</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>16.205100000000002</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>1.9650000000000001</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>27.3429</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>9.1005000000000003</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>19.774799999999999</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>4.9644000000000004</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>115.28319999999999</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>18.521100000000001</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>4.7591999999999999</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>0.47770000000000001</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>16.9739</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>6.7641</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <v>9.6674000000000007</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="3">
         <v>3.3426999999999998</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>1.7966</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="3">
         <v>6.3846999999999996</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <v>843.70230000000004</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="3">
         <v>117.8319</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="3">
         <v>8.7987000000000002</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="3">
         <v>2.383</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>90</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>26.529800000000002</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4.1275000000000004</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>128.292</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>5.1127000000000002</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>16.1418</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>1.8132999999999999</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>27.59</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>9.1189999999999998</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>20.05</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>5.0179999999999998</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>116.01</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>18.667300000000001</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>4.7511000000000001</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>0.46989999999999998</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>17.081499999999998</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>6.7366000000000001</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>9.7439999999999998</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>3.3494999999999999</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>1.8875999999999999</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>6.2816999999999998</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>846.9529</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="3">
         <v>117.85250000000001</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="3">
         <v>8.9244000000000003</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="3">
         <v>2.3645999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>91</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>26.9771</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>4.6058000000000003</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>128.88810000000001</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>5.1520000000000001</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>16.255299999999998</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>1.9914000000000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>27.83</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>9.109</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>20.329999999999998</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>5.0640000000000001</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>116.7047</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>18.6358</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>4.7393000000000001</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>0.47</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>17.263000000000002</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>6.7118000000000002</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>9.7873999999999999</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>3.3934000000000002</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>1.8234999999999999</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <v>6.4114000000000004</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>849.98950000000002</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="3">
         <v>118.9499</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="3">
         <v>9.0367999999999995</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="3">
         <v>2.3698999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>92</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>27.289200000000001</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>4.6630000000000003</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>129.47749999999999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>5.1562000000000001</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>16.267299999999999</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>1.9763999999999999</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>28.05</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>9.125</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>20.55</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>5.1349999999999998</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>117.29</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>18.658899999999999</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>4.7206999999999999</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>0.46870000000000001</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>17.378499999999999</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>6.6413000000000002</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>9.8376000000000001</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>3.3456000000000001</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>1.8411999999999999</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>6.4286000000000003</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>853.98310000000004</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="3">
         <v>120.2801</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="3">
         <v>9.1532</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="3">
         <v>2.3692000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>93</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>27.666</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>4.6512000000000002</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>130.08320000000001</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>5.2107000000000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>16.311399999999999</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>1.9711000000000001</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>28.29</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>9.1229999999999993</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>20.83</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>5.2039999999999997</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>118.10250000000001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>18.8506</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>4.7108999999999996</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>0.4708</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>17.518799999999999</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>6.6506999999999996</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>9.8952000000000009</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <v>3.3675999999999999</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>1.8333999999999999</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <v>6.4420000000000002</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>856.86360000000002</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="3">
         <v>119.84139999999999</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="3">
         <v>9.2738999999999994</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="3">
         <v>2.3845999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>94</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>27.983499999999999</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>4.9600999999999997</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>130.62979999999999</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>5.2257999999999996</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>16.376300000000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>2.1707999999999998</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>28.52</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>9.1590000000000007</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>21.08</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>5.2619999999999996</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>118.7514</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>18.902000000000001</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>4.7005999999999997</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>0.46899999999999997</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>17.696400000000001</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>6.6361999999999997</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>9.9476999999999993</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="3">
         <v>3.3639000000000001</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <v>1.8044</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>6.4630999999999998</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>860.27520000000004</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="3">
         <v>120.0775</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="3">
         <v>9.3895999999999997</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="3">
         <v>2.3727</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>95</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>28.430399999999999</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>5.0848000000000004</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>131.2484</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>5.2775999999999996</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>16.479500000000002</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>2.1739000000000002</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>28.75</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>9.0909999999999993</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>21.33</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>5.359</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>119.4753</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>19.184699999999999</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>4.6802999999999999</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>0.47060000000000002</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>17.8489</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>6.6193999999999997</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>9.9711999999999996</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="3">
         <v>3.4066000000000001</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <v>1.8078000000000001</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>6.4767999999999999</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>863.39869999999996</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="3">
         <v>121.4054</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="3">
         <v>9.5100999999999996</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="3">
         <v>2.3706</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>96</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>28.620100000000001</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>4.9603999999999999</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>131.8236</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>5.2621000000000002</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>16.483699999999999</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>2.1265000000000001</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>28.93</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>9.1140000000000008</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>21.61</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>5.4080000000000004</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>119.9965</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>19.364899999999999</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>4.6702000000000004</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>0.46910000000000002</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>18.0015</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>6.6647999999999996</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>10.037100000000001</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <v>3.3733</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>1.8243</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>6.5014000000000003</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>866.19860000000006</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <v>120.4927</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="3">
         <v>9.6339000000000006</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="3">
         <v>2.3652000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>97</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>28.9436</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>5.0235000000000003</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>132.39359999999999</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>5.2946</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>16.540500000000002</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>2.0882999999999998</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>29.17</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>9.1449999999999996</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>21.86</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>5.4480000000000004</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>120.82850000000001</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>19.4344</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>4.6597999999999997</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>0.46910000000000002</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>18.146699999999999</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>6.609</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <v>10.075799999999999</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <v>3.3311999999999999</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>1.8266</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <v>6.5533000000000001</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>869.62210000000005</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="3">
         <v>122.18340000000001</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="3">
         <v>9.7509999999999994</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="3">
         <v>2.3561000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>98</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>29.261199999999999</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>4.9718</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>132.9684</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>5.3311000000000002</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>16.567299999999999</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>2.0832000000000002</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>29.36</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>9.1029</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>22.11</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>5.57</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>121.50190000000001</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>19.2911</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>4.6398000000000001</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>0.45879999999999999</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>18.325900000000001</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>6.5952999999999999</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <v>10.154</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <v>3.3656000000000001</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <v>1.8248</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <v>6.4894999999999996</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>872.53129999999999</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="3">
         <v>122.46639999999999</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="3">
         <v>9.8722999999999992</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15" s="3">
         <v>2.3805000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>99</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <v>29.550899999999999</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>9.1646999999999998</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>22.36</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>5.61</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>122.0278</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>19.6722</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>4.6292</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>0.4602</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>18.456900000000001</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>6.5662000000000003</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <v>10.1899</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <v>3.3702999999999999</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <v>1.8319000000000001</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="3">
         <v>6.5587999999999997</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <v>875.77260000000001</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="3">
         <v>122.89830000000001</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="3">
         <v>9.9780999999999995</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="3">
         <v>2.3683000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>100</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
         <v>29.76</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>9.0728000000000009</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>22.64</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>5.6479999999999997</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>122.9061</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>19.699300000000001</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>4.6182999999999996</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>0.46100000000000002</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>18.6328</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>6.6227999999999998</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>10.245799999999999</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="3">
         <v>3.3607</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>1.7962</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>6.6332000000000004</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>878.80550000000005</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="3">
         <v>122.0504</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="3">
         <v>10.0977</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="3">
         <v>2.3879000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>101</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
         <v>29.953700000000001</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>9.0609000000000002</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>22.89</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>5.702</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>123.5162</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>19.6768</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>4.6097999999999999</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>0.46</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>18.755299999999998</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>6.5632000000000001</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <v>10.3127</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <v>3.3548</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>1.8394999999999999</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="3">
         <v>6.6398000000000001</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <v>882.43290000000002</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="3">
         <v>123.8691</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="3">
         <v>10.214499999999999</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="3">
         <v>2.3668999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
@@ -4903,10 +4903,6 @@
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4918,7 +4914,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A7" sqref="A1:Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4927,1252 +4923,1256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="U1" s="5"/>
+      <c r="V1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6" t="s">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="6"/>
+      <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>86</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>25.530999999999999</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>3.9144000000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>125.0318</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>5.0697999999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>15.7095</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1.7351000000000001</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>87</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>25.8994</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3.9295</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>125.5526</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>5.0350000000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>15.7285</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>1.7936000000000001</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>88</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>26.210999999999999</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4.2667000000000002</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>126.0945</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>5.0648999999999997</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>15.772600000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>1.8591</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>89</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>26.6326</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>4.3216000000000001</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>126.6035</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>5.0442999999999998</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>15.819000000000001</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>1.8596999999999999</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>90</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>26.799399999999999</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4.3869999999999996</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>127.1345</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>5.1013000000000002</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>15.8447</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>1.8268</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>25.119599999999998</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>8.9397000000000002</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>23.515000000000001</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>6.0479000000000003</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>125.90689999999999</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>16.435700000000001</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>4.6303999999999998</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>0.27039999999999997</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>10.7767</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>4.6936</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>11.159000000000001</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>3.6821000000000002</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>4.5297999999999998</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>5.7508999999999997</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>843.00800000000004</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="3">
         <v>90.578599999999994</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="3">
         <v>9.8343000000000007</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="3">
         <v>2.1553</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>91</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>27.170300000000001</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>4.3845000000000001</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>127.5963</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>5.1147</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>15.868600000000001</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>1.8380000000000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>25.501300000000001</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>8.9992999999999999</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>23.6828</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>5.9840999999999998</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>126.2998</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>16.5808</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>4.6200999999999999</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>0.28160000000000002</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>10.962400000000001</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>4.9873000000000003</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>11.2331</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>3.7094</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>4.5304000000000002</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <v>5.6974</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>844.11580000000004</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="3">
         <v>91.566699999999997</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="3">
         <v>9.9435000000000002</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="3">
         <v>2.2442000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>92</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>27.4603</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>4.3422000000000001</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>128.101</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>5.1185</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>15.901</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>1.7945</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>25.977599999999999</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>9.0446000000000009</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>23.804300000000001</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>5.9017999999999997</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>126.7253</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>16.63</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>4.6097000000000001</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>0.28849999999999998</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>11.117699999999999</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>5.2248000000000001</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>11.279500000000001</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>3.6798000000000002</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>4.5587999999999997</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>5.6071999999999997</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>845.48339999999996</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="3">
         <v>92.714600000000004</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="3">
         <v>10.051399999999999</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="3">
         <v>2.3370000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>93</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>27.842600000000001</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>4.4619999999999997</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>128.57570000000001</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>5.1924999999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>15.926399999999999</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>1.8274999999999999</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>26.348800000000001</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>9.0625</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>23.9831</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>5.7510000000000003</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>127.15600000000001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>16.680199999999999</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>4.6096000000000004</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>0.2994</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>11.288</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>5.5156999999999998</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>11.387499999999999</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <v>3.6837</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>4.5773000000000001</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <v>5.5495000000000001</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>846.94690000000003</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="3">
         <v>93.949299999999994</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="3">
         <v>10.157299999999999</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="3">
         <v>2.4148000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>94</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>28.313099999999999</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>4.8272000000000004</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>129.0369</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>5.1536</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>16.002700000000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>1.8192999999999999</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>26.790199999999999</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>9.141</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>24.146599999999999</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>5.6807999999999996</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>127.55629999999999</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>16.8841</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>4.6006</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>0.3105</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>11.4849</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>5.7641999999999998</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>11.463699999999999</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="3">
         <v>3.7128000000000001</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <v>4.5720000000000001</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>5.4870000000000001</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>848.25379999999996</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="3">
         <v>95.056200000000004</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="3">
         <v>10.2699</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="3">
         <v>2.4916</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>95</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>28.464099999999998</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>4.7469000000000001</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>129.5292</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>5.2184999999999997</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>16.002400000000002</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>1.7870999999999999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>27.236799999999999</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>9.1210000000000004</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>24.2851</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>5.5720000000000001</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>127.98860000000001</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>16.948499999999999</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>4.5902000000000003</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>0.32190000000000002</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>11.674799999999999</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>6.0410000000000004</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>11.504</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="3">
         <v>3.6760000000000002</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <v>4.5942999999999996</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>5.4137000000000004</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>849.0951</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="3">
         <v>94.485299999999995</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="3">
         <v>10.3757</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="3">
         <v>2.5752999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>96</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>28.852599999999999</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>4.8507999999999996</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>130.00960000000001</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>5.2016999999999998</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>16.0138</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>1.7552000000000001</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>27.628</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>9.1776999999999997</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>24.426600000000001</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>5.5247000000000002</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>128.3956</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>16.8142</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>4.5811999999999999</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>0.32929999999999998</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>11.881500000000001</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>6.3323</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>11.593</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <v>3.7159</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>4.6196999999999999</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>5.3445999999999998</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>851.16150000000005</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <v>97.909300000000002</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="3">
         <v>10.4877</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="3">
         <v>2.6692</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>97</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>29.148700000000002</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>5.0175999999999998</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>130.46449999999999</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>5.2343000000000002</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>16.066600000000001</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>2.0287000000000002</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>28.043800000000001</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>9.1748999999999992</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>24.5901</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>5.3758999999999997</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>128.83940000000001</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>16.947800000000001</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>4.5796000000000001</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>0.34</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>12.020799999999999</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>6.5598000000000001</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <v>11.6418</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <v>3.6802999999999999</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>4.6215999999999999</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <v>5.2773000000000003</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>851.92380000000003</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="3">
         <v>98.689300000000003</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="3">
         <v>10.5991</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="3">
         <v>2.7341000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>98</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>29.4514</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>5.1212</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>130.90110000000001</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>5.2587000000000002</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>16.094100000000001</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>2.0790000000000002</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>28.477</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>9.2112999999999996</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>24.7544</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>5.3254000000000001</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>129.20310000000001</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>17.032800000000002</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>4.5701000000000001</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>0.34989999999999999</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>12.213800000000001</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>6.8663999999999996</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <v>11.7477</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <v>3.7307999999999999</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <v>4.6283000000000003</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <v>5.165</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>853.45039999999995</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="3">
         <v>100.4265</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="3">
         <v>10.710599999999999</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15" s="3">
         <v>2.8277000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>99</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <v>28.898599999999998</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>9.2484000000000002</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>24.904399999999999</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>5.2046999999999999</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>129.58799999999999</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>17.137899999999998</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>4.5594000000000001</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>0.36049999999999999</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>12.405200000000001</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>7.1520000000000001</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <v>11.827400000000001</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <v>3.7017000000000002</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <v>4.6477000000000004</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="3">
         <v>5.1159999999999997</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <v>854.55949999999996</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="3">
         <v>101.61360000000001</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="3">
         <v>10.822699999999999</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="3">
         <v>2.9184000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>100</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
         <v>29.326499999999999</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>9.2898999999999994</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>25.026599999999998</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>5.1359000000000004</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>130.05529999999999</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>17.021000000000001</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>4.5499000000000001</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>0.36849999999999999</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>12.5844</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>7.3497000000000003</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>11.907999999999999</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="3">
         <v>3.7012</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>4.6668000000000003</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>5.0065</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>855.92250000000001</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="3">
         <v>102.6996</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="3">
         <v>10.9383</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="3">
         <v>2.9908000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>101</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
         <v>29.780799999999999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>9.2512000000000008</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>25.1937</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>5.0110000000000001</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>130.45670000000001</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>17.1252</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>4.5502000000000002</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>0.38009999999999999</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>12.7616</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>7.7016999999999998</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <v>11.971299999999999</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <v>3.7239</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>4.6593999999999998</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="3">
         <v>4.9572000000000003</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <v>857.40210000000002</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="3">
         <v>103.26430000000001</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="3">
         <v>11.041</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="3">
         <v>3.048</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>102</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
         <v>30.165900000000001</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>9.4345999999999997</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>25.375499999999999</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>4.9332000000000003</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>130.88570000000001</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>17.340800000000002</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>4.5396999999999998</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>0.3871</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <v>12.942500000000001</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>7.8547000000000002</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="3">
         <v>12.0335</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="3">
         <v>3.7261000000000002</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="3">
         <v>4.7013999999999996</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="3">
         <v>4.8289999999999997</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="3">
         <v>858.95770000000005</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="3">
         <v>104.8309</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19" s="3">
         <v>11.165800000000001</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y19" s="3">
         <v>3.1505999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
@@ -6182,10 +6182,6 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6196,8 +6192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:Y1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6206,1187 +6202,1193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="U1" s="5"/>
+      <c r="V1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6" t="s">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="6"/>
+      <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>86</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>23.161999999999999</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>3.3477999999999999</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>123.5218</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>5.0046999999999997</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>15.0848</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1.4999</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>87</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>23.371200000000002</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3.3714</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>124.0397</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>4.9827000000000004</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>15.1096</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>1.5634999999999999</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>88</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>23.581800000000001</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>3.4083000000000001</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>124.6</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>5.0019999999999998</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>15.1267</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>1.5346</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>89</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>23.8675</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>3.7073</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>125.102</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>5.0087999999999999</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>15.1419</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>1.5304</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>90</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>24.030799999999999</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>3.6404000000000001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>125.6204</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>5.0143000000000004</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>15.1435</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>1.5787</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>31.850899999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>7.2687999999999997</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>23.477799999999998</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>4.4617000000000004</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>121.1433</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>15.047700000000001</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>4.7698999999999998</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>0.32850000000000001</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>10.597200000000001</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>5.4627999999999997</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>12.411799999999999</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>3.0430000000000001</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>9.5432000000000006</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>5.3323999999999998</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>821.02229999999997</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="3">
         <v>74.187100000000001</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="3">
         <v>7.7378</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="3">
         <v>1.8291999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>91</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>24.237300000000001</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>3.8136999999999999</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>126.09820000000001</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>5.0556000000000001</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>15.161099999999999</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>1.6041000000000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>32.127800000000001</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>7.3036000000000003</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>23.769300000000001</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>4.5919999999999996</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>121.6163</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>15.0047</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>4.7601000000000004</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>0.32790000000000002</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>10.7278</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>5.5415999999999999</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>12.536099999999999</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>3.0825</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>9.3523999999999994</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <v>5.3827999999999996</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>821.31960000000004</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="3">
         <v>74.562200000000004</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="3">
         <v>7.8250000000000002</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="3">
         <v>1.8389</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>92</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>24.4572</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>3.7683</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>126.58710000000001</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>5.0552000000000001</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>15.1723</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>1.6</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>32.408799999999999</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>7.2991999999999999</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>24.065300000000001</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>4.7239000000000004</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>122.07599999999999</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>15.046900000000001</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>4.7495000000000003</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>0.32979999999999998</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>10.826000000000001</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>5.6536999999999997</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>12.6477</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>3.1353</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>9.1701999999999995</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>5.4194000000000004</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>821.21439999999996</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="3">
         <v>75.454599999999999</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="3">
         <v>7.9071999999999996</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="3">
         <v>1.8335999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>93</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>24.708400000000001</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>3.7290999999999999</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>127.0647</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>5.0754000000000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>15.196199999999999</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>1.55</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>32.703400000000002</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>7.3891999999999998</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>24.3657</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>4.907</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>122.4487</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>14.92</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>4.7404000000000002</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>0.32990000000000003</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>10.916600000000001</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>5.8067000000000002</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>12.7736</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <v>3.1398000000000001</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>9.0188000000000006</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <v>5.4019000000000004</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>821.15260000000001</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="3">
         <v>75.862700000000004</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="3">
         <v>8.0092999999999996</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="3">
         <v>1.8436999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>94</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>24.944600000000001</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>3.7991000000000001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>127.5335</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>5.1064999999999996</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>15.2127</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>1.5485</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>32.990900000000003</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>7.3996000000000004</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>24.607199999999999</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>5.0109000000000004</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>122.87949999999999</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>14.9398</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>4.7309000000000001</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>0.32950000000000002</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>11.011200000000001</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>5.9423000000000004</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>12.9145</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="3">
         <v>3.2353000000000001</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <v>8.8680000000000003</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>5.4752999999999998</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>820.92020000000002</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="3">
         <v>76.476900000000001</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="3">
         <v>8.0937000000000001</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="3">
         <v>1.8306</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>95</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>25.1814</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>3.8717999999999999</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>128.0222</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>5.1266999999999996</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>15.250999999999999</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>1.7379</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>33.2699</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>7.4461000000000004</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>24.8826</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>5.1558999999999999</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>123.31359999999999</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>14.999599999999999</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>4.7201000000000004</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>0.32890000000000003</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>11.119300000000001</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>6.0617999999999999</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>13.036300000000001</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="3">
         <v>3.1976</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <v>8.6832999999999991</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>5.4668000000000001</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>821.2011</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="3">
         <v>76.691999999999993</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="3">
         <v>8.1845999999999997</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="3">
         <v>1.8491</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>96</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>25.368099999999998</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>3.9020999999999999</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>128.52119999999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>5.1451000000000002</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>15.257</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>1.7655000000000001</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>33.540799999999997</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>7.5034999999999998</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>25.203199999999999</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>5.3167999999999997</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>123.7295</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>15.0733</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>4.7096999999999998</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>0.32729999999999998</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>11.2172</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>6.1727999999999996</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>13.1516</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <v>3.2812000000000001</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>8.5124999999999993</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>5.4832000000000001</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>821.04139999999995</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <v>77.505399999999995</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="3">
         <v>8.2835000000000001</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="3">
         <v>1.861</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>97</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>25.613299999999999</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>3.9397000000000002</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>128.99010000000001</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>5.1714000000000002</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>15.2971</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>1.7505999999999999</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>33.8491</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>7.5774999999999997</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>25.4834</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>5.4871999999999996</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>124.21720000000001</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>15.118499999999999</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>4.6989999999999998</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>0.32879999999999998</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>11.274699999999999</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>6.2915000000000001</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <v>13.2936</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <v>3.3500999999999999</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>8.3546999999999993</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <v>5.5483000000000002</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>820.93359999999996</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="3">
         <v>78.1982</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="3">
         <v>8.3762000000000008</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="3">
         <v>1.8682000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>98</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>25.866299999999999</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>4.2613000000000003</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>129.48689999999999</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>5.1519000000000004</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>15.320499999999999</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>1.7381</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>34.104999999999997</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>7.5529999999999999</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>25.747299999999999</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>5.5808999999999997</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>124.6147</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>15.073600000000001</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>4.6797000000000004</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>0.3291</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>11.4086</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>6.4427000000000003</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <v>13.4054</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <v>3.3820999999999999</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <v>8.1797000000000004</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <v>5.5944000000000003</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>820.77650000000006</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="3">
         <v>78.8703</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="3">
         <v>8.4724000000000004</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15" s="3">
         <v>1.8734999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>99</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <v>34.408999999999999</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>7.6698000000000004</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>26.032699999999998</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>5.7462999999999997</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>125.0129</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>14.981999999999999</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>4.6698000000000004</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>0.32740000000000002</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>11.517899999999999</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>6.4782000000000002</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <v>13.523</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <v>3.3769999999999998</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <v>8.0053000000000001</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="3">
         <v>5.6032999999999999</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <v>820.62869999999998</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="3">
         <v>79.740799999999993</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="3">
         <v>8.5698000000000008</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="3">
         <v>1.8793</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>100</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
         <v>34.7318</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>7.6519000000000004</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>26.3034</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>5.8954000000000004</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>125.48</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>15.036199999999999</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>4.6593</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>0.32750000000000001</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>11.642899999999999</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>6.6607000000000003</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>13.668200000000001</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="3">
         <v>3.444</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>7.8324999999999996</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>5.6643999999999997</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>820.72529999999995</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="3">
         <v>79.373599999999996</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="3">
         <v>8.6617999999999995</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="3">
         <v>1.8732</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>101</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
         <v>35.000999999999998</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>7.7389999999999999</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>26.6099</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>6.0529999999999999</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>125.8203</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>15.020799999999999</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>4.6498999999999997</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>0.32900000000000001</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>11.718299999999999</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>6.7332000000000001</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <v>13.7582</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <v>3.5007999999999999</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>7.6684000000000001</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="3">
         <v>5.6657000000000002</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <v>820.5729</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="3">
         <v>80.190600000000003</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="3">
         <v>8.7516999999999996</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="3">
         <v>1.8874</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="L1:M1"/>
@@ -7394,12 +7396,6 @@
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7410,7 +7406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -7467,43 +7463,43 @@
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>6.4516129032582401E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.16129032256268799</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>3.2258064487592698E-2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>9.67741935268744E-2</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>6.4516129057980501E-2</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>5.6451612841986895E-2</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>-2.41935483800962E-2</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>0.52419354843596</v>
       </c>
     </row>
@@ -7511,43 +7507,43 @@
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.143505844899593</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.113950793873413</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>2.8856853100943002E-2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>5.6954982335349194E-2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>8.58073333233767E-2</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>4.9650110160972399E-2</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>2.1388480861952899E-2</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>0.50004496651462904</v>
       </c>
     </row>
@@ -7555,43 +7551,43 @@
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.14285714329381399</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.114285714355098</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>2.8571428464649502E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>5.7142856617499904E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>8.5714285949279601E-2</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>2.14285706635454E-2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>-4.9999999409059095E-2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>0.55000000003366201</v>
       </c>
     </row>
@@ -7599,43 +7595,43 @@
       <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.142857142746705</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>2.8571428598633999E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>5.7142857177453203E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.11428571425923799</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>8.5714285766462395E-2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>-4.9999999952462799E-2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>-2.1428571470436801E-2</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>0.57142857142674897</v>
       </c>
     </row>
@@ -7643,43 +7639,43 @@
       <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>5.7142857088302905E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.14285714282435799</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.11428571428012801</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>2.85714285223455E-2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>8.5714285736906301E-2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>-2.1428571424160599E-2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>5.0000000026784099E-2</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>0.52142857146138799</v>
       </c>
     </row>
@@ -7687,43 +7683,43 @@
       <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.11940298506300301</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2.9850746270331699E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>5.9701492557420396E-2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>8.9552238868118403E-2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>0.14925373135897502</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>-5.2238805944106202E-2</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>0.55223880593998798</v>
       </c>
     </row>
@@ -7731,43 +7727,43 @@
       <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.142857142914352</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>5.7142857136276703E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>8.5714285704765303E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>2.8571428558399999E-2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.114285714299245</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>5.0000000019692299E-2</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>-2.1428571436787898E-2</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>0.52142857137963206</v>
       </c>
     </row>
@@ -7775,43 +7771,43 @@
       <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>5.7142857138446697E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.142857142873584</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>2.8571428567343099E-2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.114285714263515</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>8.5714285654557409E-2</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>5.0000000037080897E-2</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>-2.1428571560735601E-2</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>0.52142857153965105</v>
       </c>
     </row>
@@ -7819,43 +7815,43 @@
       <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>3.0303030270355899E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.15151515151047501</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>6.06060605966625E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>9.0909090955727995E-2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>9.0909090873288106E-2</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>-2.27272726945189E-2</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>-5.3030303073902794E-2</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>0.57575757580321396</v>
       </c>
     </row>
@@ -7863,43 +7859,43 @@
       <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>8.3333333328393697E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>8.33333334098664E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>8.333333332727659E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>8.3333333240678292E-2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>8.33333334298718E-2</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>5.8333333298571495E-2</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>-2.4999999937397203E-2</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>0.52499999995309299</v>
       </c>
     </row>
